--- a/statistics/HistoricalDistanceData/historical_distance/Q23018346-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23018346-en.xlsx
@@ -34,27 +34,27 @@
     <t>Deep in Virginia’s craggy coal country, they saw Trump as their only hope</t>
   </si>
   <si>
+    <t>Clinton haunted by coal country comment</t>
+  </si>
+  <si>
+    <t>2016 General Election Turnout</t>
+  </si>
+  <si>
     <t>West Virginia Presidential Primary Ballots Set</t>
   </si>
   <si>
-    <t>2016 General Election Turnout</t>
-  </si>
-  <si>
-    <t>Clinton haunted by coal country comment</t>
-  </si>
-  <si>
     <t>2016-11-11T22:25:40UTC</t>
   </si>
   <si>
+    <t>2016-05-10T05:14:08UTC</t>
+  </si>
+  <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2016-02-02T17:19:10UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2016-05-10T05:14:08UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -64,13 +64,13 @@
     <t>https://www.washingtonpost.com/local/virginia-politics/deep-in-virginias-craggy-coal-country-they-saw-trump-as-their-only-hope/2016/11/11/a76ac324-a69f-11e6-8042-f4d111c862d1_story.html</t>
   </si>
   <si>
+    <t>http://www.politico.com/story/2016/05/sanders-looking-to-rack-up-west-virginia-win-over-clinton-222952</t>
+  </si>
+  <si>
+    <t>http://www.sos.wv.gov/elections/Pages/2016-General-Election-Turnout.aspx</t>
+  </si>
+  <si>
     <t>http://ballot-access.org/2016/02/02/west-virginia-presidential-primary-ballots-set/</t>
-  </si>
-  <si>
-    <t>http://www.sos.wv.gov/elections/Pages/2016-General-Election-Turnout.aspx</t>
-  </si>
-  <si>
-    <t>http://www.politico.com/story/2016/05/sanders-looking-to-rack-up-west-virginia-win-over-clinton-222952</t>
   </si>
 </sst>
 </file>
